--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_ex01_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_ex01_end.xlsx
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]   There are some "Lungmen citizens" who are "casually passing by," we are well aware.
+    <t xml:space="preserve">[name="Wei Yenwu"]   There are some 'Lungmen citizens' who are 'casually passing by,' we are well aware.
 </t>
   </si>
   <si>
